--- a/Resources/Reports/Report.xlsx
+++ b/Resources/Reports/Report.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terry\source\repos\BudgetExecution\Resources\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C91B85-20A6-4C4D-B576-5D3871EF08DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1DAFF9-954F-41A6-B836-530D4224A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{688E59C9-E96F-4263-B047-051B13D0C402}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,29 +32,14 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Source Code Pro"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,67 +62,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <border>
-        <top style="double">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -182,17 +113,65 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <top style="double">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="DataTable" defaultPivotStyle="PivotTable">
     <tableStyle name="DataTable" pivot="0" count="3" xr9:uid="{1589B50D-198B-48DF-874C-7FA5E77305AA}">
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="totalRow" dxfId="3"/>
+    </tableStyle>
+    <tableStyle name="PivotTable" table="0" count="3" xr9:uid="{22D3457F-8969-4B83-93A8-4BBCB0EC31E5}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
-      <tableStyleElement type="totalRow" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotTable" table="0" count="3" xr9:uid="{22D3457F-8969-4B83-93A8-4BBCB0EC31E5}">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="3"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -416,38 +395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0208BE-A32F-45EA-95B5-ED8038815612}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078C8EB1-46E3-422B-9FA2-DD3112687DA7}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I12:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="10" width="9.85546875" style="2"/>
-    <col min="11" max="16384" width="9.85546875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.15" footer="0.15"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;R
-&amp;G</oddFooter>
-  </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Resources/Reports/Report.xlsx
+++ b/Resources/Reports/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terry\source\repos\BudgetExecution\Resources\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC303AA5-AF50-47D1-BD39-5A69DD7973E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A88F18B-3A13-435A-BC33-147546C1380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{688E59C9-E96F-4263-B047-051B13D0C402}"/>
   </bookViews>
@@ -30,6 +30,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -86,22 +90,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
       <border>
@@ -111,9 +116,64 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <border>
@@ -168,13 +228,62 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="8"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <sz val="8"/>
+        <name val="Roboto"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="BudgetExecutionTable" defaultPivotStyle="PivotTable">
+  <tableStyles count="4" defaultTableStyle="BudgetExecutionTable" defaultPivotStyle="BudgetPivot">
+    <tableStyle name="BudgetExecutionSlicer" pivot="0" table="0" count="10" xr9:uid="{024AE33F-FC9F-43C8-9343-58C2824842DD}">
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+    </tableStyle>
     <tableStyle name="BudgetExecutionTable" pivot="0" count="2" xr9:uid="{1589B50D-198B-48DF-874C-7FA5E77305AA}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="PivotTable" table="0" count="3" xr9:uid="{22D3457F-8969-4B83-93A8-4BBCB0EC31E5}">
+    <tableStyle name="BudgetPivot" table="0" count="3" xr9:uid="{22D3457F-8969-4B83-93A8-4BBCB0EC31E5}">
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="3"/>
+    </tableStyle>
+    <tableStyle name="BudgetPivot 2" table="0" count="3" xr9:uid="{9D7AC548-E200-46BF-A6A1-D23F86F0D4F9}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="pageFieldLabels" dxfId="0"/>
@@ -182,15 +291,204 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF89B0FF"/>
+      <color rgb="FFC6E0B4"/>
+      <color rgb="FFEFF6FB"/>
+      <color rgb="FF7C9CD6"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3B7CFF"/>
       <color rgb="FFFAFAFA"/>
+      <color rgb="FFEDF1F9"/>
       <color rgb="FFF2F2F2"/>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FFF7F7F7"/>
+      <color rgb="FFF8F8F8"/>
     </mruColors>
   </colors>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
+      <x14:dxfs count="8">
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="0"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left/>
+            <right/>
+            <top/>
+            <bottom/>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="0"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left/>
+            <right/>
+            <top/>
+            <bottom/>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="8"/>
+            <color theme="1"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FF89B0FF"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
+          <font>
+            <b/>
+            <i val="0"/>
+            <sz val="8"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FFC6E0B4"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left style="hair">
+              <color auto="1"/>
+            </left>
+            <right style="hair">
+              <color auto="1"/>
+            </right>
+            <top style="hair">
+              <color auto="1"/>
+            </top>
+            <bottom style="hair">
+              <color auto="1"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="8"/>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill patternType="solid">
+              <fgColor auto="1"/>
+              <bgColor theme="0"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left/>
+            <right/>
+            <top/>
+            <bottom/>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <b val="0"/>
+            <i val="0"/>
+            <sz val="8"/>
+            <color auto="1"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FFEFF6FB"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left style="thin">
+              <color theme="4"/>
+            </left>
+            <right style="thin">
+              <color theme="4"/>
+            </right>
+            <top style="thin">
+              <color theme="4"/>
+            </top>
+            <bottom style="thin">
+              <color theme="4"/>
+            </bottom>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <color theme="0"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor theme="0"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left/>
+            <right/>
+            <top/>
+            <bottom/>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+        <dxf>
+          <font>
+            <sz val="8"/>
+            <color theme="0" tint="-0.34998626667073579"/>
+          </font>
+          <fill>
+            <patternFill>
+              <bgColor rgb="FFFFFFFF"/>
+            </patternFill>
+          </fill>
+          <border diagonalUp="0" diagonalDown="0">
+            <left/>
+            <right/>
+            <top/>
+            <bottom/>
+            <vertical/>
+            <horizontal/>
+          </border>
+        </dxf>
+      </x14:dxfs>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="BudgetExecutionSlicer">
+        <x14:slicerStyle name="BudgetExecutionSlicer">
+          <x14:slicerStyleElements>
+            <x14:slicerStyleElement type="unselectedItemWithData" dxfId="7"/>
+            <x14:slicerStyleElement type="unselectedItemWithNoData" dxfId="6"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="5"/>
+            <x14:slicerStyleElement type="selectedItemWithNoData" dxfId="4"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithData" dxfId="3"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithData" dxfId="2"/>
+            <x14:slicerStyleElement type="hoveredUnselectedItemWithNoData" dxfId="1"/>
+            <x14:slicerStyleElement type="hoveredSelectedItemWithNoData" dxfId="0"/>
+          </x14:slicerStyleElements>
+        </x14:slicerStyle>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
@@ -202,27 +500,27 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="BudgetExecution">
   <a:themeElements>
-    <a:clrScheme name="Budget Execution Dark Mode">
+    <a:clrScheme name="BudgetExecution">
       <a:dk1>
-        <a:srgbClr val="0A0A0A"/>
+        <a:srgbClr val="0F0F0F"/>
       </a:dk1>
       <a:lt1>
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0F0F0F"/>
+        <a:srgbClr val="343434"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="C1C1C1"/>
+        <a:srgbClr val="F2F2F2"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4E4E00"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="8EA3BD"/>
+        <a:srgbClr val="1F3864"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="1E2300"/>
@@ -231,7 +529,7 @@
         <a:srgbClr val="1E1E00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="343434"/>
+        <a:srgbClr val="C00000"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0563C1"/>
@@ -240,9 +538,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Darkmode Source Font">
+    <a:fontScheme name="BudgetExecution">
       <a:majorFont>
-        <a:latin typeface="Source Code Pro"/>
+        <a:latin typeface="Roboto"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
@@ -406,7 +704,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -724,7 +1022,6 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1425,11 +1722,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.15" footer="0.15"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.4" footer="0.4"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C&amp;"Roboto,Regular"&amp;12Title Line 1&amp;14
-&amp;10Title Line 2</oddHeader>
+    <oddHeader>&amp;L&amp;G</oddHeader>
     <oddFooter>&amp;R
 &amp;G</oddFooter>
   </headerFooter>

--- a/Resources/Reports/Report.xlsx
+++ b/Resources/Reports/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terry\source\repos\BudgetExecution\Resources\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A88F18B-3A13-435A-BC33-147546C1380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C4B680-7DCC-415D-ADD8-9F87D94F2812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{688E59C9-E96F-4263-B047-051B13D0C402}"/>
   </bookViews>
@@ -30,10 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -269,7 +265,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="4" defaultTableStyle="BudgetExecutionTable" defaultPivotStyle="BudgetPivot">
+  <tableStyles count="5" defaultTableStyle="BudgetExecutionTable" defaultPivotStyle="BudgetPivot">
     <tableStyle name="BudgetExecutionSlicer" pivot="0" table="0" count="10" xr9:uid="{024AE33F-FC9F-43C8-9343-58C2824842DD}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
@@ -288,6 +284,7 @@
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="pageFieldLabels" dxfId="0"/>
     </tableStyle>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{BE4ECA7D-713D-463A-AFDA-257654D2EFCA}"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -704,7 +701,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
